--- a/console/Networking/launchExcel/components/create_systemDisk.xlsx
+++ b/console/Networking/launchExcel/components/create_systemDisk.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE6D61-38FB-6E45-BEA3-2B7CFBACA384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29500" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -442,42 +448,47 @@
     <t>Device Name</t>
   </si>
   <si>
-    <t>'The Local Disk doesn't support encryption'</t>
-  </si>
-  <si>
     <t>'The encryption attribute is inherited from snapshot and cannot be modified'</t>
   </si>
   <si>
-    <t>Encryption</t>
-  </si>
-  <si>
     <t>Cannot modify the local disk</t>
   </si>
   <si>
-    <t>Cannot modify cloud disk under monthly package</t>
-  </si>
-  <si>
-    <t>Release on VM termination</t>
-  </si>
-  <si>
-    <t>Different image categories support different system disk types; if the system disk type needs to be changed, please change the image category first, and the data disk information of the below configuration will be cleared after the change</t>
-  </si>
-  <si>
-    <t>'The selected snapshot capacity has exceeded the available capacity quota of the specified cloud disk type'</t>
-  </si>
-  <si>
     <t>'This type has been sold out in the current region'</t>
   </si>
   <si>
     <t>This type is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The local disk doesn't support encryption'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The monthly package of cloud disk cannot be changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release with VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different image categories support different system disk types; if the system disk type needs to be changed, please change the image category first, and then the data disk information configured below will be cleared.</t>
+  </si>
+  <si>
+    <t>The capacity of the selected snapshot has exceeded the available capacity of the specified cloud disk type'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,12 +531,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,22 +880,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="34.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="1"/>
-    <col min="3" max="3" width="58.75" style="2"/>
-    <col min="4" max="16384" width="58.75" style="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" style="1"/>
+    <col min="3" max="3" width="58.6640625" style="2"/>
+    <col min="4" max="16384" width="58.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -914,7 +928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,7 +939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,7 +950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,18 +961,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="38">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -966,10 +980,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -977,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -988,10 +1002,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -999,10 +1013,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1010,10 +1024,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="76">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1021,21 +1035,21 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1043,10 +1057,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1054,10 +1068,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
